--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>802971.9672724525</v>
+        <v>833392.7272625003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1790467.545064538</v>
+        <v>1837768.572025073</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19042273.9649169</v>
+        <v>18990388.14216099</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6621414.361711887</v>
+        <v>6633121.04974138</v>
       </c>
     </row>
     <row r="11">
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N2" t="n">
-        <v>89.21461903306817</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>59.1341916913176</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>40.41143908783388</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.19551146150849</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>51.29964492647429</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>69.73269920583448</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>87.70217318086733</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>82.3054327458207</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
-        <v>97.41850398649862</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>37.77581921773375</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>15.48722582050863</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.8953901729241</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>50.94872141056345</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>74.04503350661622</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>68.42730627354024</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>84.31378269605858</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720269</v>
+        <v>28.74009079028824</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4.94295693345623</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>17.99414464209616</v>
       </c>
       <c r="P9" t="n">
-        <v>39.2768703153011</v>
+        <v>43.00209896284861</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L11" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M11" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P11" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L14" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M14" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P14" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9638,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9875,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10112,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10349,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10586,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10823,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11060,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.20985652598359</v>
+        <v>22.35498420928584</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.17113495739464</v>
+        <v>22.20985652598358</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.05689605041565</v>
+        <v>22.09335693785067</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23270,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H11" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I11" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J11" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R11" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S11" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I12" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J12" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R12" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S12" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I13" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J13" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K13" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L13" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M13" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N13" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O13" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P13" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R13" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S13" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U13" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H14" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I14" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J14" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935984</v>
       </c>
       <c r="R14" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S14" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I15" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J15" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R15" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S15" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T15" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I16" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J16" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K16" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L16" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M16" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N16" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O16" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P16" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R16" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S16" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U16" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H17" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I17" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J17" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R17" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S17" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I18" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J18" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R18" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S18" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I19" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J19" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K19" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L19" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M19" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N19" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O19" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P19" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R19" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S19" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U19" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H20" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I20" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J20" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R20" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S20" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I21" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J21" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R21" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I22" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J22" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K22" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M22" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N22" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O22" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P22" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R22" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S22" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U22" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H23" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I23" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J23" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R23" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S23" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I24" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J24" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R24" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S24" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I25" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J25" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K25" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L25" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M25" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N25" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O25" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P25" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R25" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S25" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U25" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H26" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I26" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J26" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R26" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S26" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I27" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J27" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R27" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I28" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J28" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K28" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L28" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M28" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N28" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O28" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P28" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R28" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S28" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U28" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H29" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I29" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J29" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R29" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S29" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I30" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J30" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R30" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I31" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J31" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K31" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L31" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M31" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N31" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O31" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P31" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R31" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S31" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U31" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I32" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J32" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R32" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S32" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I33" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J33" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R33" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I34" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J34" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K34" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L34" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M34" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N34" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O34" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P34" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R34" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S34" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U34" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I35" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J35" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R35" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I36" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J36" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R36" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I37" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J37" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K37" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L37" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M37" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N37" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O37" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P37" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R37" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S37" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U37" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H38" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I38" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J38" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R38" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S38" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I39" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J39" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R39" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S39" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I40" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J40" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K40" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L40" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M40" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N40" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O40" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P40" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R40" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S40" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U40" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H41" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I41" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J41" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R41" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I42" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J42" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R42" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S42" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I43" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J43" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K43" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L43" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M43" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N43" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O43" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P43" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R43" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S43" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U43" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H44" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I44" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J44" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R44" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I45" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J45" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R45" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S45" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I46" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J46" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721984</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M46" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N46" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O46" t="n">
-        <v>40.88220347059112</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P46" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R46" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S46" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U46" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1132407.008889901</v>
+        <v>1136356.461477059</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1131356.475761775</v>
+        <v>1132407.008889901</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1127408.277393281</v>
+        <v>1128832.10620527</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387092.4654761393</v>
+        <v>387718.3361660334</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570622.5290386393</v>
+        <v>570615.597740485</v>
       </c>
       <c r="C2" t="n">
-        <v>570624.3783807548</v>
+        <v>570622.5290386392</v>
       </c>
       <c r="D2" t="n">
-        <v>570629.8344309522</v>
+        <v>570628.0930589685</v>
       </c>
       <c r="E2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698398</v>
       </c>
       <c r="F2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="G2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698398</v>
       </c>
       <c r="H2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="I2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698398</v>
       </c>
       <c r="J2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698398</v>
       </c>
       <c r="K2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="L2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="M2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="N2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="O2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="P2" t="n">
-        <v>191102.2152803673</v>
+        <v>192140.8085698398</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>296084.832265483</v>
       </c>
       <c r="C3" t="n">
-        <v>8770.909527808109</v>
+        <v>32873.19771926153</v>
       </c>
       <c r="D3" t="n">
-        <v>24336.65507127536</v>
+        <v>24818.25471997845</v>
       </c>
       <c r="E3" t="n">
-        <v>69352.80631588837</v>
+        <v>84112.4907708954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>431941.147556881</v>
+      </c>
+      <c r="C4" t="n">
         <v>419703.838713672</v>
       </c>
-      <c r="C4" t="n">
-        <v>416568.9185676725</v>
-      </c>
       <c r="D4" t="n">
-        <v>407394.0704310247</v>
+        <v>410308.0756039693</v>
       </c>
       <c r="E4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="F4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384047</v>
       </c>
       <c r="G4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="H4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="I4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="J4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="K4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="L4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="M4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="N4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="O4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
       <c r="P4" t="n">
-        <v>20813.21952210202</v>
+        <v>19448.45307384046</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40325.98342092472</v>
+      </c>
+      <c r="C5" t="n">
         <v>41112.97456555201</v>
       </c>
-      <c r="C5" t="n">
-        <v>41322.95195161772</v>
-      </c>
       <c r="D5" t="n">
-        <v>41942.44098443807</v>
+        <v>41744.72270709982</v>
       </c>
       <c r="E5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="F5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-221066.0384256889</v>
+        <v>-197736.3655028037</v>
       </c>
       <c r="C6" t="n">
-        <v>103961.5983336566</v>
+        <v>76932.51804015362</v>
       </c>
       <c r="D6" t="n">
-        <v>96956.66794421412</v>
+        <v>93757.04002792097</v>
       </c>
       <c r="E6" t="n">
-        <v>90739.48944361309</v>
+        <v>78180.38521972792</v>
       </c>
       <c r="F6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906234</v>
       </c>
       <c r="G6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="H6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="I6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="J6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="K6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="L6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="M6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="N6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="O6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
       <c r="P6" t="n">
-        <v>160092.2957595015</v>
+        <v>162292.8759906233</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>307.2652945378311</v>
+      </c>
+      <c r="C3" t="n">
         <v>343.3658057592666</v>
       </c>
-      <c r="C3" t="n">
-        <v>352.9977959457674</v>
-      </c>
       <c r="D3" t="n">
-        <v>381.4147240567924</v>
+        <v>372.3450783073314</v>
       </c>
       <c r="E3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="F3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="G3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="H3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="I3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="J3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="L3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="N3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="O3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="P3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>307.2652945378311</v>
       </c>
       <c r="C3" t="n">
-        <v>9.631990186500918</v>
+        <v>36.10051122143542</v>
       </c>
       <c r="D3" t="n">
-        <v>28.416928111025</v>
+        <v>28.9792725480649</v>
       </c>
       <c r="E3" t="n">
-        <v>86.32380799659495</v>
+        <v>104.6952659759739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27394,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>351.4460539125595</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>260.0086625493751</v>
       </c>
       <c r="J2" t="n">
-        <v>103.6577574092157</v>
+        <v>115.9752881198903</v>
       </c>
       <c r="K2" t="n">
-        <v>62.01598937483024</v>
+        <v>80.47677491968921</v>
       </c>
       <c r="L2" t="n">
-        <v>18.3845087542864</v>
+        <v>41.2867456370067</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.110974423871767</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.39991403678161</v>
       </c>
       <c r="O2" t="n">
-        <v>4.934605547775959</v>
+        <v>29.38698749776844</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874355</v>
+        <v>76.88191503721166</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.8562777625268</v>
+        <v>136.528434872733</v>
       </c>
       <c r="R2" t="n">
-        <v>211.4982239222711</v>
+        <v>220.6146007585062</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>239.2417785919129</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>220.1071468016013</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.8027865475419</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27470,19 +27472,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.1082856331488</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>138.65162376758</v>
       </c>
       <c r="I3" t="n">
-        <v>117.4902810648562</v>
+        <v>120.1637623204059</v>
       </c>
       <c r="J3" t="n">
-        <v>82.93859734111298</v>
+        <v>90.27483424885772</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636242</v>
+        <v>26.10963015032081</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,19 +27502,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.8266610081867</v>
+        <v>65.7386353344948</v>
       </c>
       <c r="R3" t="n">
-        <v>155.3651088272201</v>
+        <v>160.1862299295847</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>209.7558611348718</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.4714371169917</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6556938978798</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27549,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.3126173255835</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>168.2732127455533</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>170.0882995208624</v>
       </c>
       <c r="J4" t="n">
-        <v>133.20905535072</v>
+        <v>137.8115746256233</v>
       </c>
       <c r="K4" t="n">
-        <v>88.99056004441432</v>
+        <v>96.55391305113473</v>
       </c>
       <c r="L4" t="n">
-        <v>62.96960703121101</v>
+        <v>72.64809490851192</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975205</v>
+        <v>69.91111155223093</v>
       </c>
       <c r="N4" t="n">
-        <v>47.31542685419204</v>
+        <v>57.27739251633012</v>
       </c>
       <c r="O4" t="n">
-        <v>72.58297639552539</v>
+        <v>81.78446407537587</v>
       </c>
       <c r="P4" t="n">
-        <v>91.43798011889523</v>
+        <v>99.31144243512436</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7386590351999</v>
+        <v>158.1898362296367</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>224.5712254263881</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>245.0554432685926</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.4209190998627</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2238474010273</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -27631,19 +27633,19 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>349.5632077616287</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>252.9208142658396</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>100.3713126771895</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>57.09046064443382</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>12.27395481918597</v>
+        <v>18.38450875428637</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27652,25 +27654,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>50.44416280369205</v>
+        <v>56.01237276874352</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.674783972567</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>209.0658801893955</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>235.0523137644421</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3023467014476</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7880786073906</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -27707,19 +27709,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0099176112525</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.701595766634</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>116.7769685840634</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>80.98121337311851</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>10.22535180752844</v>
+        <v>13.57083277636241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27737,19 +27739,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.18204362716858</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R6" t="n">
-        <v>154.0787837981625</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>207.9287182720169</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0749449585587</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6492223174919</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -27786,49 +27788,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2301488804216</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5399932967506</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6082484609042</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>131.9810555526804</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>86.97257914960316</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>60.38728625235798</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>56.98380791654166</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N7" t="n">
-        <v>44.6574712671532</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>70.12792420831695</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>89.33725884936725</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.2842285170383</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>220.863144246656</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6182431833628</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0685539250803</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2193491222004</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -27868,16 +27870,16 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>348.766663618974</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>249.9222771673705</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>93.77000049091893</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>47.19680489086682</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -27892,22 +27894,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147885</v>
+        <v>39.2595863707439</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>108.2756328645375</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488762</v>
+        <v>204.1801566692163</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>233.2799471440838</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>218.9618734208938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7818563658271</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -27944,19 +27946,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>160.968302702022</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>137.2996833538022</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>115.3441745601174</v>
       </c>
       <c r="J9" t="n">
-        <v>75.20641102934879</v>
+        <v>77.04951705849162</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>3.505456574455792</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27974,19 +27976,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>47.86993696819729</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>151.4950089952352</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>207.155739585213</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>229.9072076709146</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>249.6464844945162</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -28023,49 +28025,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>169.1952603384582</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>167.229802441839</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>166.5590548534935</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>129.5144356358626</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470317</v>
+        <v>82.91916491057385</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>55.200311568079</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673176</v>
+        <v>51.51487037948515</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235181</v>
+        <v>39.31857284105146</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>65.19658738606127</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>85.11764828316647</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>148.3627888804421</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>219.2944285325528</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>243.0102310475085</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>217.9194847003273</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2174461108205</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.235237364976205</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>12.65037466406256</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>47.62148851324517</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>104.8392273056492</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>157.126824965092</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562028</v>
+        <v>194.9297204734825</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>216.8968729628781</v>
       </c>
       <c r="N2" t="n">
-        <v>246.3019864769461</v>
+        <v>220.4064911261168</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>208.1235995781346</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>177.6286771302846</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>133.3917389970742</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>77.59297912768658</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>28.14797145439529</v>
       </c>
       <c r="T2" t="n">
-        <v>6.042547998838951</v>
+        <v>5.407251565183338</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.09881898919809634</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.6609102561757122</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640614</v>
+        <v>6.38300168464438</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>22.75502417096202</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>62.44152556263604</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003671</v>
+        <v>106.7225127264088</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>143.5015887367484</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>167.4595855231179</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>171.8917424603665</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>157.2473625735257</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>126.2048716376235</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.27658878129901</v>
+        <v>84.36461445499091</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913377</v>
+        <v>41.03441046676923</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>12.27611813554447</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.66393212905912</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.04348093790629688</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.5540849573633019</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>4.92631898455736</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>16.6628458087073</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>39.17380648558544</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>64.37459777366361</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>82.37732175199491</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716446</v>
+        <v>86.85533563468557</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>84.79010988451334</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>78.31739015531474</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>67.01405702510333</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>46.39705947521249</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>24.91367453744446</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>9.65618966604954</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.367453908734108</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.03022281585618014</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.419086616867405</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.53322081499332</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>54.7093367967807</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>120.4432027483501</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5131392403474</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>223.9425112913033</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
-        <v>249.179192914019</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>253.2111727641935</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O5" t="n">
-        <v>239.1001302177183</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>204.0664293638042</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.2453898972402</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>89.14169969679725</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.33743628186603</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.212051665337071</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1135269293493924</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.759278278072028</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.333029685590377</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I6" t="n">
-        <v>26.14181790730447</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>71.73514643837525</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6067910692011</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
-        <v>164.8599612103322</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>192.3837987904432</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>180.6516173270759</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>144.9888494328945</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.92120616231713</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R6" t="n">
-        <v>47.14185659819137</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S6" t="n">
-        <v>14.10326099839928</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.060424287492077</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04995251829421239</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6365534025251542</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.659538433360012</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>19.14289686866555</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>45.0043255585284</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>73.95593167519517</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>94.63813040814885</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>99.78263927037484</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
-        <v>97.41003113369027</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>89.97393002237365</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>76.98824061086044</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.30266718781088</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>28.62175571717647</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>11.09338975127928</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.719819083516568</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03472109468319027</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.533325523846401</v>
+        <v>1.496864636411381</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>15.32976495764806</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>57.70787389524983</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>127.0445149346206</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>190.4067949939144</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>236.2164661104893</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>262.8363325882701</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>267.089299236474</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>252.2048515081583</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860174</v>
+        <v>215.2510057967523</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>161.6445410052697</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731654</v>
+        <v>94.02742321697652</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>34.10980290222439</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637622</v>
+        <v>6.552524945890824</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1197491709129105</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.8008931873025619</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.734942098422112</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>27.57461193125049</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214497</v>
+        <v>75.66684275300214</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>129.3266863022738</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>173.8956896377778</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>202.9280676774956</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>190.5528628579038</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>152.9354718806094</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>102.2333128212884</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215053</v>
+        <v>49.72563140111873</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>14.87623968520328</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.228161575136202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.05269034126990541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.687797043381101</v>
+        <v>0.6714419444886303</v>
       </c>
       <c r="H10" t="n">
-        <v>6.11514098569743</v>
+        <v>5.969729288271644</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458803</v>
+        <v>20.19209047607627</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>47.47094547534616</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009517</v>
+        <v>78.00934591422448</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>99.82510509242783</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001848</v>
+        <v>105.2515768074314</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384917</v>
+        <v>102.748929559792</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>94.90526684462934</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>81.20785117706122</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>56.22410682440704</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>30.19047143127968</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.70140188713367</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.868888308269602</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.03662410606301624</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H11" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I11" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J11" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K11" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L11" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M11" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P11" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R11" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S11" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H12" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I12" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J12" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K12" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R12" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S12" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T12" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I13" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J13" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L13" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M13" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N13" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O13" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P13" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R13" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S13" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T13" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H14" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I14" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093318</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K14" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L14" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M14" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P14" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104473</v>
       </c>
       <c r="R14" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S14" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660631</v>
       </c>
       <c r="T14" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H15" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I15" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J15" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K15" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R15" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S15" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T15" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I16" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J16" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K16" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L16" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M16" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N16" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O16" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P16" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R16" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451191</v>
       </c>
       <c r="S16" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T16" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035301</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H17" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I17" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J17" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K17" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L17" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M17" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P17" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R17" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S17" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T17" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H18" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I18" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J18" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K18" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R18" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S18" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T18" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I19" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J19" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K19" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L19" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M19" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N19" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O19" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P19" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R19" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S19" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T19" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H20" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I20" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J20" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K20" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L20" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M20" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P20" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R20" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S20" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T20" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H21" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I21" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J21" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K21" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R21" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S21" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T21" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I22" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J22" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K22" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L22" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M22" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N22" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O22" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P22" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R22" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S22" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T22" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H23" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I23" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J23" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K23" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L23" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M23" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P23" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R23" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S23" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T23" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H24" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I24" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J24" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K24" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R24" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S24" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T24" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I25" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J25" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K25" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L25" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M25" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N25" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O25" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P25" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R25" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S25" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T25" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H26" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I26" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J26" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K26" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L26" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M26" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P26" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R26" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S26" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T26" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H27" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I27" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J27" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R27" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S27" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T27" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H28" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I28" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J28" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K28" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L28" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M28" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N28" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O28" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P28" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R28" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S28" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T28" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H29" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I29" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J29" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K29" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L29" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M29" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P29" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R29" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S29" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T29" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H30" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I30" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J30" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K30" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R30" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S30" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T30" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H31" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I31" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J31" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K31" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L31" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M31" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N31" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O31" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P31" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R31" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S31" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T31" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H32" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I32" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J32" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K32" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L32" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M32" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P32" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R32" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S32" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T32" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H33" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I33" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J33" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K33" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R33" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S33" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T33" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H34" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I34" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J34" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K34" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L34" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M34" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N34" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O34" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P34" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R34" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S34" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T34" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H35" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I35" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K35" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L35" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M35" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P35" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R35" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S35" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T35" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H36" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I36" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J36" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K36" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R36" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S36" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T36" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H37" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I37" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J37" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K37" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L37" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M37" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N37" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O37" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P37" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R37" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S37" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T37" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H38" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I38" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J38" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K38" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L38" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M38" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P38" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R38" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S38" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T38" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H39" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I39" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J39" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R39" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S39" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T39" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I40" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J40" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K40" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L40" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M40" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N40" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O40" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P40" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R40" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S40" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T40" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H41" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I41" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J41" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K41" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L41" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M41" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P41" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R41" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S41" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T41" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H42" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I42" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J42" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R42" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S42" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T42" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I43" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J43" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K43" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L43" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N43" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O43" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P43" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R43" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S43" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T43" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H44" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M44" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R44" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S44" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T44" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I45" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S45" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I46" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J46" t="n">
-        <v>59.632828914413</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K46" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L46" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M46" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N46" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O46" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P46" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R46" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T46" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>833392.7272625003</v>
+        <v>743683.194009195</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1837768.572025073</v>
+        <v>1804558.090997095</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18990388.14216099</v>
+        <v>18927212.0651543</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6633121.04974138</v>
+        <v>6657212.723893828</v>
       </c>
     </row>
     <row r="11">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>5.877000739367346</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2678,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>5.877000739367346</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>5.877000739367346</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
     </row>
     <row r="34">
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3626,16 +3626,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>20.7530122715116</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>20.7530122715116</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>20.7530122715116</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>13.41740210663386</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>20.02302282867482</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>26.62864355071578</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>7.273529112566679</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>6.470151916293557</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>59.1341916913176</v>
+        <v>62.26566053506795</v>
       </c>
       <c r="M3" t="n">
-        <v>40.41143908783388</v>
+        <v>44.06571552664732</v>
       </c>
       <c r="N3" t="n">
-        <v>20.19551146150849</v>
+        <v>23.94650572401838</v>
       </c>
       <c r="O3" t="n">
-        <v>51.29964492647429</v>
+        <v>54.73107186045925</v>
       </c>
       <c r="P3" t="n">
-        <v>69.73269920583448</v>
+        <v>72.48672184029975</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -9643,16 +9643,16 @@
         <v>77.93639933769609</v>
       </c>
       <c r="L23" t="n">
-        <v>42.17302860521352</v>
+        <v>48.84537276889125</v>
       </c>
       <c r="M23" t="n">
-        <v>0.141223971726788</v>
+        <v>6.543978472225628</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.39931236355852</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P23" t="n">
         <v>62.40339073079662</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>77.93639933769609</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
         <v>42.17302860521352</v>
       </c>
       <c r="M26" t="n">
-        <v>0.141223971726788</v>
+        <v>0.2025705414188742</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.39931236355852</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P26" t="n">
-        <v>62.40339073079662</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>77.93639933769609</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
         <v>42.17302860521352</v>
       </c>
       <c r="M29" t="n">
-        <v>0.141223971726788</v>
+        <v>0.2025705414188742</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.39931236355852</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P29" t="n">
-        <v>62.40339073079662</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10354,7 +10354,7 @@
         <v>77.93639933769609</v>
       </c>
       <c r="L32" t="n">
-        <v>42.17302860521352</v>
+        <v>48.57578310571233</v>
       </c>
       <c r="M32" t="n">
         <v>0.141223971726788</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.39931236355852</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P32" t="n">
-        <v>62.40339073079662</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10588,19 +10588,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>77.93639933769609</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>42.17302860521352</v>
+        <v>48.84537276889125</v>
       </c>
       <c r="M35" t="n">
-        <v>0.141223971726788</v>
+        <v>6.813568135404523</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.39931236355852</v>
+        <v>13.46065893325061</v>
       </c>
       <c r="P35" t="n">
         <v>62.40339073079662</v>
@@ -10831,16 +10831,16 @@
         <v>42.17302860521352</v>
       </c>
       <c r="M38" t="n">
-        <v>0.141223971726788</v>
+        <v>6.813568135404523</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.39931236355852</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P38" t="n">
-        <v>62.40339073079662</v>
+        <v>68.80614523129546</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -11068,16 +11068,16 @@
         <v>42.17302860521352</v>
       </c>
       <c r="M41" t="n">
-        <v>0.141223971726788</v>
+        <v>6.543978472225628</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.39931236355852</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P41" t="n">
-        <v>62.40339073079662</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11302,7 +11302,7 @@
         <v>77.93639933769609</v>
       </c>
       <c r="L44" t="n">
-        <v>42.17302860521352</v>
+        <v>48.57578310571235</v>
       </c>
       <c r="M44" t="n">
         <v>0.141223971726788</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.39931236355852</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P44" t="n">
-        <v>62.40339073079662</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.35498420928584</v>
+        <v>22.38193936258491</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5971194742085</v>
+        <v>327.7201187348411</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>312.4594114795699</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.82473475935979</v>
+        <v>56.15239059568205</v>
       </c>
       <c r="R23" t="n">
         <v>177.7417084225297</v>
@@ -24262,7 +24262,7 @@
         <v>217.1194471824624</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7481855265182</v>
+        <v>242.0758413628405</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24338,16 +24338,16 @@
         <v>202.9728674021163</v>
       </c>
       <c r="T24" t="n">
-        <v>228.9995194687267</v>
+        <v>223.1225187293593</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6316691266894</v>
+        <v>242.9593249630117</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>242.6275810164946</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>276.5769125992534</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24454,7 +24454,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>393.2694168340017</v>
       </c>
       <c r="G26" t="n">
         <v>421.67247144649</v>
@@ -24499,16 +24499,16 @@
         <v>217.1194471824624</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7481855265182</v>
+        <v>242.0758413628405</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>318.7193813156156</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>342.1445351398352</v>
       </c>
       <c r="Y26" t="n">
         <v>377.9289763951821</v>
@@ -24566,16 +24566,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.12417261947326</v>
+        <v>13.24717188010591</v>
       </c>
       <c r="R27" t="n">
-        <v>137.5132525315004</v>
+        <v>130.8409083678226</v>
       </c>
       <c r="S27" t="n">
-        <v>202.9728674021163</v>
+        <v>196.3005232384385</v>
       </c>
       <c r="T27" t="n">
-        <v>228.9995194687267</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U27" t="n">
         <v>249.6316691266894</v>
@@ -24700,7 +24700,7 @@
         <v>344.4562700805762</v>
       </c>
       <c r="I29" t="n">
-        <v>233.6960892616871</v>
+        <v>227.0237450980094</v>
       </c>
       <c r="J29" t="n">
         <v>58.04787051854379</v>
@@ -24727,16 +24727,16 @@
         <v>62.82473475935979</v>
       </c>
       <c r="R29" t="n">
-        <v>177.7417084225297</v>
+        <v>171.069364258852</v>
       </c>
       <c r="S29" t="n">
         <v>223.6890190097018</v>
       </c>
       <c r="T29" t="n">
-        <v>217.1194471824624</v>
+        <v>210.4471030187846</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7481855265182</v>
+        <v>242.8711847871509</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24812,16 +24812,16 @@
         <v>202.9728674021163</v>
       </c>
       <c r="T30" t="n">
-        <v>228.9995194687267</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6316691266894</v>
+        <v>242.9593249630117</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>242.6275810164946</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>277.3722560235638</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24922,7 +24922,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D32" t="n">
-        <v>319.1317556432476</v>
+        <v>313.2547549038803</v>
       </c>
       <c r="E32" t="n">
         <v>359.9585549362873</v>
@@ -24934,7 +24934,7 @@
         <v>421.67247144649</v>
       </c>
       <c r="H32" t="n">
-        <v>344.4562700805762</v>
+        <v>337.7839259168985</v>
       </c>
       <c r="I32" t="n">
         <v>233.6960892616871</v>
@@ -24970,10 +24970,10 @@
         <v>223.6890190097018</v>
       </c>
       <c r="T32" t="n">
-        <v>217.1194471824624</v>
+        <v>210.4471030187846</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7481855265182</v>
+        <v>242.0758413628405</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25040,10 +25040,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.12417261947326</v>
+        <v>13.24717188010591</v>
       </c>
       <c r="R33" t="n">
-        <v>137.5132525315004</v>
+        <v>130.8409083678226</v>
       </c>
       <c r="S33" t="n">
         <v>202.9728674021163</v>
@@ -25058,13 +25058,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>276.5769125992534</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>236.2239222499156</v>
       </c>
     </row>
     <row r="34">
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.82473475935979</v>
+        <v>56.15239059568205</v>
       </c>
       <c r="R35" t="n">
-        <v>177.7417084225297</v>
+        <v>171.069364258852</v>
       </c>
       <c r="S35" t="n">
-        <v>223.6890190097018</v>
+        <v>217.0166748460241</v>
       </c>
       <c r="T35" t="n">
         <v>217.1194471824624</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7481855265182</v>
+        <v>242.8711847871509</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25283,16 +25283,16 @@
         <v>137.5132525315004</v>
       </c>
       <c r="S36" t="n">
-        <v>202.9728674021163</v>
+        <v>196.3005232384385</v>
       </c>
       <c r="T36" t="n">
-        <v>228.9995194687267</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6316691266894</v>
+        <v>242.9593249630117</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>243.422924440805</v>
       </c>
       <c r="W36" t="n">
         <v>283.2492567629311</v>
@@ -25405,7 +25405,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.67247144649</v>
+        <v>415.7954707071226</v>
       </c>
       <c r="H38" t="n">
         <v>344.4562700805762</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.82473475935979</v>
+        <v>56.15239059568205</v>
       </c>
       <c r="R38" t="n">
         <v>177.7417084225297</v>
@@ -25450,10 +25450,10 @@
         <v>248.7481855265182</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>306.6320978373454</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>318.7193813156156</v>
       </c>
       <c r="X38" t="n">
         <v>348.8168793035129</v>
@@ -25514,16 +25514,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.12417261947326</v>
+        <v>12.45182845579552</v>
       </c>
       <c r="R39" t="n">
-        <v>137.5132525315004</v>
+        <v>130.8409083678226</v>
       </c>
       <c r="S39" t="n">
-        <v>202.9728674021163</v>
+        <v>196.3005232384385</v>
       </c>
       <c r="T39" t="n">
-        <v>228.9995194687267</v>
+        <v>223.1225187293594</v>
       </c>
       <c r="U39" t="n">
         <v>249.6316691266894</v>
@@ -25633,10 +25633,10 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1317556432476</v>
+        <v>313.2547549038803</v>
       </c>
       <c r="E41" t="n">
-        <v>359.9585549362873</v>
+        <v>353.2862107726096</v>
       </c>
       <c r="F41" t="n">
         <v>399.146417573369</v>
@@ -25687,10 +25687,10 @@
         <v>248.7481855265182</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>306.6320978373454</v>
       </c>
       <c r="W41" t="n">
-        <v>325.3917254792934</v>
+        <v>318.7193813156156</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
@@ -25715,7 +25715,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>187.4605452976028</v>
+        <v>181.5835445582355</v>
       </c>
       <c r="F42" t="n">
         <v>173.9843481253239</v>
@@ -25727,7 +25727,7 @@
         <v>135.1247873568297</v>
       </c>
       <c r="I42" t="n">
-        <v>107.5907987307646</v>
+        <v>100.9184545670869</v>
       </c>
       <c r="J42" t="n">
         <v>55.77366116803449</v>
@@ -25760,13 +25760,13 @@
         <v>202.9728674021163</v>
       </c>
       <c r="T42" t="n">
-        <v>228.9995194687267</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U42" t="n">
         <v>249.6316691266894</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>242.6275810164946</v>
       </c>
       <c r="W42" t="n">
         <v>283.2492567629311</v>
@@ -25879,7 +25879,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.67247144649</v>
+        <v>415.0001272828122</v>
       </c>
       <c r="H44" t="n">
         <v>344.4562700805762</v>
@@ -25921,13 +25921,13 @@
         <v>217.1194471824624</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7481855265182</v>
+        <v>242.0758413628405</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>306.6320978373454</v>
       </c>
       <c r="W44" t="n">
-        <v>325.3917254792934</v>
+        <v>319.514724739926</v>
       </c>
       <c r="X44" t="n">
         <v>348.8168793035129</v>
@@ -25958,7 +25958,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7431091110548</v>
+        <v>154.8661083716874</v>
       </c>
       <c r="H45" t="n">
         <v>135.1247873568297</v>
@@ -25988,10 +25988,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>19.12417261947326</v>
+        <v>12.45182845579552</v>
       </c>
       <c r="R45" t="n">
-        <v>137.5132525315004</v>
+        <v>130.8409083678226</v>
       </c>
       <c r="S45" t="n">
         <v>202.9728674021163</v>
@@ -26000,7 +26000,7 @@
         <v>228.9995194687267</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6316691266894</v>
+        <v>242.9593249630117</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1136356.461477059</v>
+        <v>1136726.229931993</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387718.3361660334</v>
+        <v>392176.5146640346</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387718.3361660334</v>
+        <v>392176.5146640346</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387718.3361660334</v>
+        <v>392176.5146640345</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>387718.3361660334</v>
+        <v>392176.5146640346</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>387718.3361660334</v>
+        <v>392176.5146640345</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>387718.3361660334</v>
+        <v>392176.5146640346</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>387718.3361660334</v>
+        <v>392176.5146640346</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387718.3361660334</v>
+        <v>392176.5146640346</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570615.597740485</v>
+        <v>570614.310362363</v>
       </c>
       <c r="C2" t="n">
-        <v>570622.5290386392</v>
+        <v>570622.5290386393</v>
       </c>
       <c r="D2" t="n">
-        <v>570628.0930589685</v>
+        <v>570628.0930589684</v>
       </c>
       <c r="E2" t="n">
         <v>192140.8085698398</v>
@@ -26334,28 +26334,28 @@
         <v>192140.8085698399</v>
       </c>
       <c r="I2" t="n">
-        <v>192140.8085698398</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="J2" t="n">
-        <v>192140.8085698398</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="K2" t="n">
-        <v>192140.8085698399</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="L2" t="n">
-        <v>192140.8085698399</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="M2" t="n">
-        <v>192140.8085698399</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="N2" t="n">
-        <v>192140.8085698399</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="O2" t="n">
-        <v>192140.8085698399</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="P2" t="n">
-        <v>192140.8085698398</v>
+        <v>194036.2518023051</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296084.832265483</v>
+        <v>289623.7161516586</v>
       </c>
       <c r="C3" t="n">
-        <v>32873.19771926153</v>
+        <v>38978.87007474116</v>
       </c>
       <c r="D3" t="n">
         <v>24818.25471997845</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1774.316432349347</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431941.147556881</v>
+        <v>434245.7451740154</v>
       </c>
       <c r="C4" t="n">
         <v>419703.838713672</v>
@@ -26438,28 +26438,28 @@
         <v>19448.45307384046</v>
       </c>
       <c r="I4" t="n">
-        <v>19448.45307384046</v>
+        <v>20278.53353063594</v>
       </c>
       <c r="J4" t="n">
-        <v>19448.45307384046</v>
+        <v>20278.53353063595</v>
       </c>
       <c r="K4" t="n">
-        <v>19448.45307384046</v>
+        <v>20278.53353063595</v>
       </c>
       <c r="L4" t="n">
-        <v>19448.45307384046</v>
+        <v>20278.53353063594</v>
       </c>
       <c r="M4" t="n">
-        <v>19448.45307384046</v>
+        <v>20278.53353063595</v>
       </c>
       <c r="N4" t="n">
-        <v>19448.45307384046</v>
+        <v>20278.53353063594</v>
       </c>
       <c r="O4" t="n">
-        <v>19448.45307384046</v>
+        <v>20278.53353063595</v>
       </c>
       <c r="P4" t="n">
-        <v>19448.45307384046</v>
+        <v>20278.53353063594</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40325.98342092472</v>
+        <v>40179.81236337218</v>
       </c>
       <c r="C5" t="n">
         <v>41112.97456555201</v>
@@ -26490,28 +26490,28 @@
         <v>10399.47950537606</v>
       </c>
       <c r="I5" t="n">
-        <v>10399.47950537606</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="J5" t="n">
-        <v>10399.47950537606</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="K5" t="n">
-        <v>10399.47950537606</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="L5" t="n">
-        <v>10399.47950537606</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="M5" t="n">
-        <v>10399.47950537606</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="N5" t="n">
-        <v>10399.47950537606</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="O5" t="n">
-        <v>10399.47950537606</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="P5" t="n">
-        <v>10399.47950537606</v>
+        <v>10805.15803052766</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-197736.3655028037</v>
+        <v>-193479.5033860148</v>
       </c>
       <c r="C6" t="n">
-        <v>76932.51804015362</v>
+        <v>70782.64807018735</v>
       </c>
       <c r="D6" t="n">
-        <v>93757.04002792097</v>
+        <v>93713.07424761452</v>
       </c>
       <c r="E6" t="n">
-        <v>78180.38521972792</v>
+        <v>62366.1159190412</v>
       </c>
       <c r="F6" t="n">
-        <v>162292.8759906234</v>
+        <v>146478.6066899367</v>
       </c>
       <c r="G6" t="n">
-        <v>162292.8759906233</v>
+        <v>146478.6066899366</v>
       </c>
       <c r="H6" t="n">
-        <v>162292.8759906233</v>
+        <v>146478.6066899367</v>
       </c>
       <c r="I6" t="n">
-        <v>162292.8759906233</v>
+        <v>145442.9513094582</v>
       </c>
       <c r="J6" t="n">
-        <v>162292.8759906233</v>
+        <v>147217.2677418076</v>
       </c>
       <c r="K6" t="n">
-        <v>162292.8759906233</v>
+        <v>147217.2677418076</v>
       </c>
       <c r="L6" t="n">
-        <v>162292.8759906233</v>
+        <v>147217.2677418076</v>
       </c>
       <c r="M6" t="n">
-        <v>162292.8759906233</v>
+        <v>147217.2677418076</v>
       </c>
       <c r="N6" t="n">
-        <v>162292.8759906233</v>
+        <v>147217.2677418076</v>
       </c>
       <c r="O6" t="n">
-        <v>162292.8759906233</v>
+        <v>147217.2677418076</v>
       </c>
       <c r="P6" t="n">
-        <v>162292.8759906233</v>
+        <v>147217.2677418076</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.2652945378311</v>
+        <v>300.5602001546872</v>
       </c>
       <c r="C3" t="n">
         <v>343.3658057592666</v>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.2652945378311</v>
+        <v>300.5602001546872</v>
       </c>
       <c r="C3" t="n">
-        <v>36.10051122143542</v>
+        <v>42.80560560457934</v>
       </c>
       <c r="D3" t="n">
         <v>28.9792725480649</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27396,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>351.4460539125595</v>
+        <v>351.7221083762836</v>
       </c>
       <c r="I2" t="n">
-        <v>260.0086625493751</v>
+        <v>261.0478510969376</v>
       </c>
       <c r="J2" t="n">
-        <v>115.9752881198903</v>
+        <v>118.2630730622073</v>
       </c>
       <c r="K2" t="n">
-        <v>80.47677491968921</v>
+        <v>83.90557150115589</v>
       </c>
       <c r="L2" t="n">
-        <v>41.2867456370067</v>
+        <v>45.54047099124983</v>
       </c>
       <c r="M2" t="n">
-        <v>3.110974423871767</v>
+        <v>7.844063485597246</v>
       </c>
       <c r="N2" t="n">
-        <v>1.39991403678161</v>
+        <v>6.209589427818059</v>
       </c>
       <c r="O2" t="n">
-        <v>29.38698749776844</v>
+        <v>33.92862758318728</v>
       </c>
       <c r="P2" t="n">
-        <v>76.88191503721166</v>
+        <v>80.75809977555969</v>
       </c>
       <c r="Q2" t="n">
-        <v>136.528434872733</v>
+        <v>139.439288183558</v>
       </c>
       <c r="R2" t="n">
-        <v>220.6146007585062</v>
+        <v>222.3078224069289</v>
       </c>
       <c r="S2" t="n">
-        <v>239.2417785919129</v>
+        <v>239.8560191477155</v>
       </c>
       <c r="T2" t="n">
-        <v>220.1071468016013</v>
+        <v>220.225142985168</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8027865475419</v>
+        <v>248.8049429598058</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27472,19 +27472,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.1082856331488</v>
+        <v>161.1227079116333</v>
       </c>
       <c r="H3" t="n">
-        <v>138.65162376758</v>
+        <v>138.7909126150487</v>
       </c>
       <c r="I3" t="n">
-        <v>120.1637623204059</v>
+        <v>120.6603188384029</v>
       </c>
       <c r="J3" t="n">
-        <v>90.27483424885772</v>
+        <v>91.63742328760586</v>
       </c>
       <c r="K3" t="n">
-        <v>26.10963015032081</v>
+        <v>28.43851184753032</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27502,19 +27502,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.7386353344948</v>
+        <v>67.57962653191952</v>
       </c>
       <c r="R3" t="n">
-        <v>160.1862299295847</v>
+        <v>161.0816763077713</v>
       </c>
       <c r="S3" t="n">
-        <v>209.7558611348718</v>
+        <v>210.0237486321606</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4714371169917</v>
+        <v>230.5295690201814</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6556938978798</v>
+        <v>249.6566427319907</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27551,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.3126173255835</v>
+        <v>169.3247084793892</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2732127455533</v>
+        <v>168.3807140948437</v>
       </c>
       <c r="I4" t="n">
-        <v>170.0882995208624</v>
+        <v>170.4519134916729</v>
       </c>
       <c r="J4" t="n">
-        <v>137.8115746256233</v>
+        <v>138.6664191996841</v>
       </c>
       <c r="K4" t="n">
-        <v>96.55391305113473</v>
+        <v>97.95868528419339</v>
       </c>
       <c r="L4" t="n">
-        <v>72.64809490851192</v>
+        <v>74.44571972067479</v>
       </c>
       <c r="M4" t="n">
-        <v>69.91111155223093</v>
+        <v>71.80645487105961</v>
       </c>
       <c r="N4" t="n">
-        <v>57.27739251633012</v>
+        <v>59.12766880733768</v>
       </c>
       <c r="O4" t="n">
-        <v>81.78446407537587</v>
+        <v>83.49349370601719</v>
       </c>
       <c r="P4" t="n">
-        <v>99.31144243512436</v>
+        <v>100.77381252813</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.1898362296367</v>
+        <v>159.2023054814914</v>
       </c>
       <c r="R4" t="n">
-        <v>224.5712254263881</v>
+        <v>225.114887669323</v>
       </c>
       <c r="S4" t="n">
-        <v>245.0554432685926</v>
+        <v>245.2661591035514</v>
       </c>
       <c r="T4" t="n">
-        <v>218.4209190998627</v>
+        <v>218.472581302487</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2238474010273</v>
+        <v>291.2245069185076</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.235237364976205</v>
+        <v>1.208282211677134</v>
       </c>
       <c r="H2" t="n">
-        <v>12.65037466406256</v>
+        <v>12.37432020033845</v>
       </c>
       <c r="I2" t="n">
-        <v>47.62148851324517</v>
+        <v>46.58229996568274</v>
       </c>
       <c r="J2" t="n">
-        <v>104.8392273056492</v>
+        <v>102.5514423633322</v>
       </c>
       <c r="K2" t="n">
-        <v>157.126824965092</v>
+        <v>153.6980283836253</v>
       </c>
       <c r="L2" t="n">
-        <v>194.9297204734825</v>
+        <v>190.6759951192394</v>
       </c>
       <c r="M2" t="n">
-        <v>216.8968729628781</v>
+        <v>212.1637839011526</v>
       </c>
       <c r="N2" t="n">
-        <v>220.4064911261168</v>
+        <v>215.5968157350803</v>
       </c>
       <c r="O2" t="n">
-        <v>208.1235995781346</v>
+        <v>203.5819594927158</v>
       </c>
       <c r="P2" t="n">
-        <v>177.6286771302846</v>
+        <v>173.7524923919365</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.3917389970742</v>
+        <v>130.4808856862491</v>
       </c>
       <c r="R2" t="n">
-        <v>77.59297912768658</v>
+        <v>75.89975747926381</v>
       </c>
       <c r="S2" t="n">
-        <v>28.14797145439529</v>
+        <v>27.53373089859271</v>
       </c>
       <c r="T2" t="n">
-        <v>5.407251565183338</v>
+        <v>5.289255381616655</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09881898919809634</v>
+        <v>0.09666257693417067</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6609102561757122</v>
+        <v>0.646487977691214</v>
       </c>
       <c r="H3" t="n">
-        <v>6.38300168464438</v>
+        <v>6.243712837175673</v>
       </c>
       <c r="I3" t="n">
-        <v>22.75502417096202</v>
+        <v>22.25846765296505</v>
       </c>
       <c r="J3" t="n">
-        <v>62.44152556263604</v>
+        <v>61.07893652388791</v>
       </c>
       <c r="K3" t="n">
-        <v>106.7225127264088</v>
+        <v>104.3936310291992</v>
       </c>
       <c r="L3" t="n">
-        <v>143.5015887367484</v>
+        <v>140.370119892998</v>
       </c>
       <c r="M3" t="n">
-        <v>167.4595855231179</v>
+        <v>163.8053090843045</v>
       </c>
       <c r="N3" t="n">
-        <v>171.8917424603665</v>
+        <v>168.1407481978566</v>
       </c>
       <c r="O3" t="n">
-        <v>157.2473625735257</v>
+        <v>153.8159356395407</v>
       </c>
       <c r="P3" t="n">
-        <v>126.2048716376235</v>
+        <v>123.4508490031582</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.36461445499091</v>
+        <v>82.5236232575662</v>
       </c>
       <c r="R3" t="n">
-        <v>41.03441046676923</v>
+        <v>40.13896408858258</v>
       </c>
       <c r="S3" t="n">
-        <v>12.27611813554447</v>
+        <v>12.00823063825566</v>
       </c>
       <c r="T3" t="n">
-        <v>2.66393212905912</v>
+        <v>2.60580022586941</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04348093790629688</v>
+        <v>0.04253210379547463</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5540849573633019</v>
+        <v>0.5419938035576326</v>
       </c>
       <c r="H4" t="n">
-        <v>4.92631898455736</v>
+        <v>4.818817635266956</v>
       </c>
       <c r="I4" t="n">
-        <v>16.6628458087073</v>
+        <v>16.29923183789681</v>
       </c>
       <c r="J4" t="n">
-        <v>39.17380648558544</v>
+        <v>38.31896191152462</v>
       </c>
       <c r="K4" t="n">
-        <v>64.37459777366361</v>
+        <v>62.96982554060494</v>
       </c>
       <c r="L4" t="n">
-        <v>82.37732175199491</v>
+        <v>80.57969693983205</v>
       </c>
       <c r="M4" t="n">
-        <v>86.85533563468557</v>
+        <v>84.95999231585689</v>
       </c>
       <c r="N4" t="n">
-        <v>84.79010988451334</v>
+        <v>82.93983359350578</v>
       </c>
       <c r="O4" t="n">
-        <v>78.31739015531474</v>
+        <v>76.60836052467342</v>
       </c>
       <c r="P4" t="n">
-        <v>67.01405702510333</v>
+        <v>65.55168693209765</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.39705947521249</v>
+        <v>45.38459022335777</v>
       </c>
       <c r="R4" t="n">
-        <v>24.91367453744446</v>
+        <v>24.37001229450955</v>
       </c>
       <c r="S4" t="n">
-        <v>9.65618966604954</v>
+        <v>9.445473831090739</v>
       </c>
       <c r="T4" t="n">
-        <v>2.367453908734108</v>
+        <v>2.315791706109884</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03022281585618014</v>
+        <v>0.02956329837587091</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>336.7401421231596</v>
       </c>
       <c r="N23" t="n">
-        <v>335.5166055100142</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O23" t="n">
         <v>323.1193218406584</v>
@@ -32794,16 +32794,16 @@
         <v>165.6905127875326</v>
       </c>
       <c r="L24" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M24" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N24" t="n">
-        <v>192.087253921875</v>
+        <v>198.4900084223738</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P24" t="n">
         <v>195.937570843458</v>
@@ -32958,7 +32958,7 @@
         <v>336.7401421231596</v>
       </c>
       <c r="N26" t="n">
-        <v>335.5166055100142</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O26" t="n">
         <v>323.1193218406584</v>
@@ -33031,16 +33031,16 @@
         <v>165.6905127875326</v>
       </c>
       <c r="L27" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M27" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N27" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O27" t="n">
-        <v>208.5470075</v>
+        <v>214.9497620004988</v>
       </c>
       <c r="P27" t="n">
         <v>195.937570843458</v>
@@ -33195,7 +33195,7 @@
         <v>336.7401421231596</v>
       </c>
       <c r="N29" t="n">
-        <v>335.5166055100142</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O29" t="n">
         <v>323.1193218406584</v>
@@ -33268,16 +33268,16 @@
         <v>165.6905127875326</v>
       </c>
       <c r="L30" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M30" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N30" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5470075</v>
+        <v>214.9497620004988</v>
       </c>
       <c r="P30" t="n">
         <v>195.937570843458</v>
@@ -33432,7 +33432,7 @@
         <v>336.7401421231596</v>
       </c>
       <c r="N32" t="n">
-        <v>335.5166055100142</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O32" t="n">
         <v>323.1193218406584</v>
@@ -33505,16 +33505,16 @@
         <v>165.6905127875326</v>
       </c>
       <c r="L33" t="n">
-        <v>202.635780428066</v>
+        <v>209.0385349285648</v>
       </c>
       <c r="M33" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N33" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O33" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P33" t="n">
         <v>195.937570843458</v>
@@ -33669,7 +33669,7 @@
         <v>336.7401421231596</v>
       </c>
       <c r="N35" t="n">
-        <v>335.5166055100142</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O35" t="n">
         <v>323.1193218406584</v>
@@ -33742,16 +33742,16 @@
         <v>165.6905127875326</v>
       </c>
       <c r="L36" t="n">
-        <v>202.635780428066</v>
+        <v>209.0385349285648</v>
       </c>
       <c r="M36" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N36" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O36" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P36" t="n">
         <v>195.937570843458</v>
@@ -33906,7 +33906,7 @@
         <v>336.7401421231596</v>
       </c>
       <c r="N38" t="n">
-        <v>335.5166055100142</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O38" t="n">
         <v>323.1193218406584</v>
@@ -33979,16 +33979,16 @@
         <v>165.6905127875326</v>
       </c>
       <c r="L39" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M39" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N39" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>214.9497620004988</v>
       </c>
       <c r="P39" t="n">
         <v>195.937570843458</v>
@@ -34143,7 +34143,7 @@
         <v>336.7401421231596</v>
       </c>
       <c r="N41" t="n">
-        <v>335.5166055100142</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O41" t="n">
         <v>323.1193218406584</v>
@@ -34216,16 +34216,16 @@
         <v>165.6905127875326</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M42" t="n">
-        <v>207.8710246109518</v>
+        <v>214.2737791114507</v>
       </c>
       <c r="N42" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O42" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P42" t="n">
         <v>195.937570843458</v>
@@ -34380,7 +34380,7 @@
         <v>336.7401421231596</v>
       </c>
       <c r="N44" t="n">
-        <v>335.5166055100142</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O44" t="n">
         <v>323.1193218406584</v>
@@ -34453,16 +34453,16 @@
         <v>165.6905127875326</v>
       </c>
       <c r="L45" t="n">
-        <v>202.635780428066</v>
+        <v>209.0385349285648</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8710246109518</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N45" t="n">
-        <v>192.087253921875</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O45" t="n">
-        <v>208.5470075</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P45" t="n">
         <v>195.937570843458</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.341407930806753</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.06134656969208616</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.341407930806753</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.06134656969208616</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>6.341407930806753</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.06134656969208616</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
